--- a/biology/Botanique/Square_du_21_Juillet/Square_du_21_Juillet.xlsx
+++ b/biology/Botanique/Square_du_21_Juillet/Square_du_21_Juillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square du 21 juillet est un parc de la Ville de Bruxelles, situé à Laeken et qui sert d'écrin à son monument principal, le mémorial Reine Astrid.
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square se situe à l’angle formé par l’avenue du Parc Royal et la rue des Vignes[1]. Il fait face à l'église Notre-Dame de Laeken et est adossé au Domaine royal (Château de Laeken)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square se situe à l’angle formé par l’avenue du Parc Royal et la rue des Vignes. Il fait face à l'église Notre-Dame de Laeken et est adossé au Domaine royal (Château de Laeken).
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square du 21 juillet a été dessiné par l'architecte Charles Girault, auteur de la colonnade du Cinquantenaire et du musée de Tervueren[2],[3].
-Le roi Léopold II, désireux d'embellir les abords du Domaine royal, veilla à l'aménagement de cet endroit qui était occupé par des  immeubles insalubres et fit l'acquisition des terrains nécessaires[2],[4].
-Le Mémorial Reine Astrid qui ferme la perspective du square a été conçu par l'architecte Paul Bonduelle et inauguré le jour de la fête nationale, le 21 juillet 1938, d'où le nom du square[2],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square du 21 juillet a été dessiné par l'architecte Charles Girault, auteur de la colonnade du Cinquantenaire et du musée de Tervueren,.
+Le roi Léopold II, désireux d'embellir les abords du Domaine royal, veilla à l'aménagement de cet endroit qui était occupé par des  immeubles insalubres et fit l'acquisition des terrains nécessaires,.
+Le Mémorial Reine Astrid qui ferme la perspective du square a été conçu par l'architecte Paul Bonduelle et inauguré le jour de la fête nationale, le 21 juillet 1938, d'où le nom du square,.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square, qui fait face à l’église Notre-Dame de Laeken, semble être un prolongement du domaine royal[2].
-La longue pelouse centrale, dont la symétrie est rompue par un grand hêtre, est rythmée par deux rangées d'ifs taillés en cône et conduit le regard vers le mémorial[5].
-Le Mémorial, précédé d'une esplanade en pierre bleue à laquelle on accède par deux marches, consiste en une colonnade en pierre naturelle en forme de U qui encadre une rotonde où se trouve la statue de la reine[4],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square, qui fait face à l’église Notre-Dame de Laeken, semble être un prolongement du domaine royal.
+La longue pelouse centrale, dont la symétrie est rompue par un grand hêtre, est rythmée par deux rangées d'ifs taillés en cône et conduit le regard vers le mémorial.
+Le Mémorial, précédé d'une esplanade en pierre bleue à laquelle on accède par deux marches, consiste en une colonnade en pierre naturelle en forme de U qui encadre une rotonde où se trouve la statue de la reine,.
 </t>
         </is>
       </c>
@@ -610,6 +628,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
